--- a/Afghanistan_Raw.xlsx
+++ b/Afghanistan_Raw.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hilgert\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leetangyuan\SWC_Workshop\Data\Original_Data\afghanistandata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5C1B7D-663A-4E0E-940D-A2CD5329A9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010"/>
+    <workbookView xWindow="945" yWindow="1635" windowWidth="24405" windowHeight="11640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Afghanistan_Raw.cc" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>country</t>
   </si>
@@ -55,31 +56,35 @@
   </si>
   <si>
     <t>Do we need more data?</t>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -87,7 +92,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -95,7 +100,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -103,35 +108,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -139,7 +144,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -147,14 +152,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -162,14 +167,14 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +182,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,15 +190,22 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -542,48 +554,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -860,16 +872,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -888,8 +900,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -909,7 +924,7 @@
         <v>635.34135100000003</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -929,7 +944,7 @@
         <v>726.73405479999997</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -949,7 +964,7 @@
         <v>974.58033839999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -969,7 +984,7 @@
         <v>779.44531449999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -989,7 +1004,7 @@
         <v>820.85302960000001</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>853.10071000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1044,7 @@
         <v>836.19713820000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>739.98110580000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1084,7 @@
         <v>786.11335999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -1089,7 +1104,7 @@
         <v>978.01143879999995</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -1109,7 +1124,7 @@
         <v>852.39594480000005</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1129,12 +1144,13 @@
         <v>649.34139519999997</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="G14" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>